--- a/Docs/TCs.xlsx
+++ b/Docs/TCs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="21555" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="21555" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="TCs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Test Name</t>
   </si>
@@ -62,16 +62,7 @@
     <t>03_FlightReservation_A_POS</t>
   </si>
   <si>
-    <t>01_Itinerary_M_POS</t>
-  </si>
-  <si>
     <t>02_SignOut_M_POS</t>
-  </si>
-  <si>
-    <t>03_CancelReservation_M_POS</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Website is accessible.
@@ -110,6 +101,77 @@
   </si>
   <si>
     <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Fill out "Flight Finder" form and continue to next page with "CONTINUE" button under the form</t>
+  </si>
+  <si>
+    <t>Select any DEPART and RETURN options in "Select Flight" form and continue to next page with "CONTINUE" button under the form</t>
+  </si>
+  <si>
+    <t>Fill out "Book a Flight" form and continue to next page with "SECURE PURCHASE" button under the form</t>
+  </si>
+  <si>
+    <t>Selected options applied into next form</t>
+  </si>
+  <si>
+    <t>Selected options applied into receipt</t>
+  </si>
+  <si>
+    <t>User logged out</t>
+  </si>
+  <si>
+    <t>Sign out using "SIGN-OFF" button in top menu</t>
+  </si>
+  <si>
+    <t>Open Itinerary page with "ITINERARY" button in top menu</t>
+  </si>
+  <si>
+    <t>03_CancelAllReservations_M_POS</t>
+  </si>
+  <si>
+    <t>Cancel all reservations with "CANCEL ALL RESERVATIONS" button at the bottom of the page</t>
+  </si>
+  <si>
+    <t>Website is accessible.
+User with login information exists.
+User has existing reservation.</t>
+  </si>
+  <si>
+    <t>Itinerary page opens with existing reservation</t>
+  </si>
+  <si>
+    <t>Reservations are canceled and not active</t>
+  </si>
+  <si>
+    <t>01_RegisterNewUser_M_POS</t>
+  </si>
+  <si>
+    <t>Website is accessible.</t>
+  </si>
+  <si>
+    <t>Open registration form by clicking "REGISTER" button in top menu</t>
+  </si>
+  <si>
+    <t>Registration form opens</t>
+  </si>
+  <si>
+    <t>Fill in registration form and submit it with "SUBMIT" button bellow the form</t>
+  </si>
+  <si>
+    <t>Sign in using new user information</t>
+  </si>
+  <si>
+    <t>Registration successful, new user is created</t>
+  </si>
+  <si>
+    <t>Environment and data available</t>
   </si>
 </sst>
 </file>
@@ -440,11 +502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,41 +544,39 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -524,41 +584,39 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -570,109 +628,235 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
